--- a/SimpleNormal.transformed.xlsx
+++ b/SimpleNormal.transformed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<zdef535161080:sst xmlns="" xmlns:zdef535161080="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<zdef417635239:sst xmlns="" xmlns:zdef417635239="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <t>test</t>
   </si>
@@ -28,7 +28,7 @@
   <si xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <t>Stuff</t>
   </si>
-</zdef535161080:sst>
+</zdef417635239:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
